--- a/odisha_ou_with_point_coordinates_imported.xlsx
+++ b/odisha_ou_with_point_coordinates_imported.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mithilesh Thakur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitHub_source_code\excel_to_Json_Converter_angularJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881E3D86-7D7B-41BF-9E51-CB4AA11A0E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0367E549-5AEC-4254-97BA-0AA1222E9548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -946,7 +946,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
